--- a/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/Câu hay làm sai/Kinh Tế Mác Lênin/Danh sách câu hỏi hay làm sai.xlsx
+++ b/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/Câu hay làm sai/Kinh Tế Mác Lênin/Danh sách câu hỏi hay làm sai.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Câu hỏi</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>Đáp án đúng</t>
+  </si>
+  <si>
+    <t>Nhận định nào sau đây là đúng?</t>
+  </si>
+  <si>
+    <t>Đối tượng nghiên cứu của kinh tế chính trị Mác - Lênin là các quan hệ xã hội của sản xuất và trao đổi, được đặt trong sự liên hệ biện chứng với trình độ phát triển của lực lượng sản xuất và kiế trúc thượng tầng tương ứng của PTSX</t>
+  </si>
+  <si>
+    <t>Kinh tế chính trị Mác - Lênin nghiên cứu biểu hiện kỹ thuật của sự sản xuất và trao đổi</t>
+  </si>
+  <si>
+    <t>Đối tượng nghiên cứu của kinh tế chính trị Mác - Lênin là quan hệ thuộc một lĩnh vực, một khía cạnh của nền sản xuất xã hội</t>
+  </si>
+  <si>
+    <t>Kinh tế chính trị Mác - Lênin nghiên cứu yếu tố vật chất của lực lượng sản xuất, nghiên cứu biểu hiện cụ thể của kiến trúc thượng tầng</t>
   </si>
 </sst>
 </file>
@@ -379,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -413,6 +428,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
